--- a/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276737A3-326E-4197-8085-E54FD96AA5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FA689-246F-41AC-A1C0-A3FDA5EBD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,73 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="462">
-  <si>
-    <t>pixelmon:master_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:poke_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:great_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:ultra_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:level_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:moon_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:friend_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:love_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:heavy_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:fast_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:repeat_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:timer_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:nest_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:net_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:dive_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:luxury_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:heal_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:dusk_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:quick_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:lure_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:sport_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:premier_ball</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="501">
   <si>
     <t>pixelmon:exp_all</t>
   </si>
@@ -1353,12 +1287,6 @@
     <t>Everything</t>
   </si>
   <si>
-    <t>pixelmon:gs_ball</t>
-  </si>
-  <si>
-    <t>pixelmon:park_ball</t>
-  </si>
-  <si>
     <t>pixelmon:gold_bottle_cap</t>
   </si>
   <si>
@@ -1420,6 +1348,195 @@
   </si>
   <si>
     <t>pixelmon:up_grade</t>
+  </si>
+  <si>
+    <t>pixelmon:belue_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:bluk_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:cornn_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:durin_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:kuo_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:magost_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:niniku_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:nomell_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:nutpea_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:pamtre_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:pinap_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:rabuta_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:razz_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:spelon_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:strib_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:topo_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:watmel_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:wepear_berry</t>
+  </si>
+  <si>
+    <t>pixelmon:peat_block</t>
+  </si>
+  <si>
+    <t>pixelmon:black_augurite</t>
+  </si>
+  <si>
+    <t>pixelmon:lustrous_globe</t>
+  </si>
+  <si>
+    <t>pixelmon:adamant_crystal</t>
+  </si>
+  <si>
+    <t>pixelmon:griseous_core</t>
+  </si>
+  <si>
+    <t>pixelmon:copper_hourglass</t>
+  </si>
+  <si>
+    <t>pixelmon:silver_hourglass</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:poke_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:great_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:ultra_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:level_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:moon_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:friend_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:love_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:heavy_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:fast_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:repeat_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:timer_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:nest_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:net_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:dive_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:luxury_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:heal_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:dusk_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:quick_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:lure_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:sport_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:premier_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:ancient_poke_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:ancient_great_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:ancient_ultra_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:ancient_heavy_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:leaden_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:gigaton_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:feather_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:wing_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:jet_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:christmas_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:strange_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:cherish_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:beast_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:gs_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:origin_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:park_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:poke_ballpixelmon:master_ball</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE888BD-5DA8-4EC4-800C-516BD8A60089}">
-  <dimension ref="A1:Q249"/>
+  <dimension ref="A1:Q270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,2636 +1886,2861 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="N1" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="Q1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="N2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="O2" t="s">
-        <v>395</v>
-      </c>
-      <c r="P2" t="s">
-        <v>414</v>
+        <v>373</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="Q2" t="s">
-        <v>1</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="M3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="N3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="O3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="P3" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="Q3" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N4" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="O4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="P4" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="Q4" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="M5" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="N5" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="O5" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="P5" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="Q5" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>467</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M6" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N6" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="O6" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="P6" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>449</v>
+        <v>468</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="M7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="N7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="O7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="Q7" t="s">
-        <v>6</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>450</v>
+        <v>469</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="M8" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="N8" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="O8" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="P8" t="s">
-        <v>419</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="L9" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="M9" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="N9" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="O9" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="P9" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
+        <v>175</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="M10" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="N10" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="O10" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="P10" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="Q10" t="s">
-        <v>9</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" t="s">
-        <v>118</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="K11" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="N11" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="O11" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="P11" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="Q11" t="s">
-        <v>10</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
+        <v>177</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L12" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="N12" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O12" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="P12" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="Q12" t="s">
-        <v>11</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>474</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
+        <v>178</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="J13" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="L13" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="N13" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="O13" t="s">
-        <v>405</v>
-      </c>
-      <c r="P13" t="s">
-        <v>424</v>
+        <v>383</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="Q13" t="s">
-        <v>12</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
+        <v>179</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="J14" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L14" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N14" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="O14" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="P14" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="Q14" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
+        <v>180</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L15" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="N15" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="O15" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="P15" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="Q15" t="s">
-        <v>14</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s">
-        <v>448</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" t="s">
-        <v>428</v>
+        <v>181</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="N16" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="O16" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="P16" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="Q16" t="s">
-        <v>15</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
+        <v>420</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="N17" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="O17" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="P17" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="Q17" t="s">
-        <v>16</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
+        <v>423</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N18" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="O18" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="P18" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="Q18" t="s">
-        <v>17</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" t="s">
-        <v>429</v>
+        <v>424</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="O19" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="P19" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
+        <v>251</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="O20" t="s">
-        <v>412</v>
+        <v>390</v>
+      </c>
+      <c r="P20" t="s">
+        <v>437</v>
       </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
+        <v>265</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s">
-        <v>327</v>
+        <v>305</v>
+      </c>
+      <c r="P21" t="s">
+        <v>422</v>
       </c>
       <c r="Q21" t="s">
-        <v>20</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>483</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
+        <v>266</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="Q22" t="s">
-        <v>21</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
+        <v>248</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="Q23" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" t="s">
-        <v>430</v>
+        <v>249</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="Q24" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="N25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="N26" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>488</v>
+      </c>
+      <c r="B27" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="N27" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>489</v>
+      </c>
+      <c r="B28" t="s">
+        <v>428</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N28" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B29" t="s">
+        <v>429</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="N29" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B30" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+      <c r="N30" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>493</v>
+      </c>
+      <c r="B32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" t="s">
+        <v>230</v>
+      </c>
+      <c r="N32" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>494</v>
+      </c>
+      <c r="B33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J33" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" t="s">
+        <v>231</v>
+      </c>
+      <c r="N33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>495</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34" t="s">
+        <v>232</v>
+      </c>
+      <c r="N34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s">
+        <v>414</v>
+      </c>
+      <c r="N35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" t="s">
+        <v>413</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" t="s">
+        <v>233</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>500</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L39" t="s">
+        <v>235</v>
+      </c>
+      <c r="N39" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" t="s">
+        <v>236</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L41" t="s">
+        <v>237</v>
+      </c>
+      <c r="N41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L43" t="s">
+        <v>239</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L44" t="s">
+        <v>240</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" t="s">
+        <v>241</v>
+      </c>
+      <c r="N45" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L47" t="s">
+        <v>243</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>244</v>
+      </c>
+      <c r="N48" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N53" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N57" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="N59" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N60" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N61" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N62" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N64" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="N66" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N67" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" t="s">
-        <v>245</v>
-      </c>
-      <c r="N25" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="N68" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N70" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J26" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" t="s">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="N71" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N72" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N73" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" t="s">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" t="s">
-        <v>248</v>
-      </c>
-      <c r="N28" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>272</v>
-      </c>
-      <c r="F29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" t="s">
-        <v>249</v>
-      </c>
-      <c r="N29" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>275</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" t="s">
-        <v>185</v>
-      </c>
-      <c r="L30" t="s">
-        <v>250</v>
-      </c>
-      <c r="N30" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" t="s">
-        <v>187</v>
-      </c>
-      <c r="L31" t="s">
-        <v>251</v>
-      </c>
-      <c r="N31" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>189</v>
-      </c>
-      <c r="L32" t="s">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" t="s">
-        <v>190</v>
-      </c>
-      <c r="L33" t="s">
-        <v>253</v>
-      </c>
-      <c r="N33" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" t="s">
-        <v>192</v>
-      </c>
-      <c r="L34" t="s">
-        <v>254</v>
-      </c>
-      <c r="N34" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" t="s">
-        <v>431</v>
-      </c>
-      <c r="J35" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" t="s">
-        <v>436</v>
-      </c>
-      <c r="N35" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" t="s">
-        <v>435</v>
-      </c>
-      <c r="N36" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" t="s">
-        <v>255</v>
-      </c>
-      <c r="N37" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F38" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="N74" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q74" t="s">
         <v>256</v>
       </c>
-      <c r="N38" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" t="s">
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N75" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q75" t="s">
         <v>257</v>
       </c>
-      <c r="N39" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>289</v>
-      </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N76" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q76" t="s">
         <v>258</v>
       </c>
-      <c r="N40" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" t="s">
+    </row>
+    <row r="77" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N77" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q77" t="s">
         <v>259</v>
       </c>
-      <c r="N41" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F42" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" t="s">
-        <v>260</v>
-      </c>
-      <c r="N42" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" t="s">
+    </row>
+    <row r="78" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N78" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q78" t="s">
         <v>261</v>
       </c>
-      <c r="N43" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>297</v>
-      </c>
-      <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="L44" t="s">
+    </row>
+    <row r="79" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q79" t="s">
         <v>262</v>
       </c>
-      <c r="N44" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" t="s">
+    </row>
+    <row r="80" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q80" t="s">
         <v>263</v>
-      </c>
-      <c r="N45" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" t="s">
-        <v>264</v>
-      </c>
-      <c r="N46" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>91</v>
-      </c>
-      <c r="L47" t="s">
-        <v>265</v>
-      </c>
-      <c r="N47" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>105</v>
-      </c>
-      <c r="L48" t="s">
-        <v>266</v>
-      </c>
-      <c r="N48" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>432</v>
-      </c>
-      <c r="N49" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>78</v>
-      </c>
-      <c r="N50" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>95</v>
-      </c>
-      <c r="N51" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="N52" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>81</v>
-      </c>
-      <c r="N53" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N54" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>98</v>
-      </c>
-      <c r="N55" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="N56" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F57" t="s">
-        <v>90</v>
-      </c>
-      <c r="N57" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F58" t="s">
-        <v>87</v>
-      </c>
-      <c r="N58" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F59" t="s">
-        <v>92</v>
-      </c>
-      <c r="N59" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N60" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="N61" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="N62" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="N63" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="N64" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N65" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N66" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N67" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N68" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N69" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N70" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N71" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N72" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N73" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N74" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N75" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N76" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N77" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N78" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N79" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N80" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="81" spans="14:17" x14ac:dyDescent="0.25">
       <c r="N81" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="Q81" t="s">
-        <v>441</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="14:17" x14ac:dyDescent="0.25">
       <c r="N82" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="Q82" t="s">
-        <v>442</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="14:17" x14ac:dyDescent="0.25">
       <c r="N83" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="Q83" t="s">
-        <v>443</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="14:17" x14ac:dyDescent="0.25">
       <c r="N84" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="Q84" t="s">
-        <v>444</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="14:17" x14ac:dyDescent="0.25">
       <c r="N85" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="Q85" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="14:17" x14ac:dyDescent="0.25">
       <c r="N86" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="Q86" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q87" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q88" t="s">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q89" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q90" t="s">
-        <v>313</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q91" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q92" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q93" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q94" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q95" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="14:17" x14ac:dyDescent="0.25">
       <c r="Q96" t="s">
-        <v>319</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q97" t="s">
-        <v>320</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q98" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q99" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q100" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q101" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q102" t="s">
-        <v>325</v>
+      <c r="Q102" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q103" t="s">
-        <v>326</v>
+      <c r="Q103" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q104" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q105" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q106" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q107" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q108" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q109" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q110" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q111" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q112" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q113" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q114" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q115" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q116" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q117" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q118" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q119" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q120" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q121" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q122" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q123" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q124" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q125" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q126" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q127" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q128" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q129" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q130" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q131" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q132" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q133" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q134" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q135" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q136" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q137" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q138" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q139" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q140" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q141" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q142" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q143" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q144" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q145" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q146" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q147" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q148" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q149" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q150" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q151" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q152" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q153" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q154" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q155" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q156" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q157" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q158" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q159" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q160" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q161" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q162" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
     </row>
     <row r="163" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q163" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q164" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q165" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q166" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q167" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q168" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q169" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q170" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q171" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q172" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q173" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q174" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q175" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q176" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q177" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q178" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q179" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q180" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q181" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q182" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q183" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q184" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q185" t="s">
-        <v>237</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q186" t="s">
-        <v>238</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q187" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q188" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q189" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q190" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q191" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q192" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q193" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q194" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q195" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q196" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q197" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q198" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q199" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q200" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q201" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q202" t="s">
-        <v>254</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q203" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q204" t="s">
-        <v>435</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q206" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q207" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q208" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q209" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q210" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q211" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q212" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="213" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q213" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q214" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q215" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q216" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q217" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q218" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q219" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q220" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q221" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q222" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q223" t="s">
-        <v>151</v>
+        <v>413</v>
       </c>
     </row>
     <row r="224" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q224" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q225" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q226" s="1" t="s">
-        <v>459</v>
+      <c r="Q226" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q227" s="1" t="s">
-        <v>460</v>
+      <c r="Q227" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q228" s="1" t="s">
-        <v>455</v>
+      <c r="Q228" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q229" s="1" t="s">
-        <v>458</v>
+      <c r="Q229" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q230" s="1" t="s">
-        <v>457</v>
+      <c r="Q230" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q231" s="1" t="s">
-        <v>456</v>
+      <c r="Q231" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q232" t="s">
-        <v>414</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q233" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q234" t="s">
-        <v>416</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q235" t="s">
-        <v>417</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q236" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
     </row>
     <row r="237" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q237" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="238" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q238" t="s">
-        <v>419</v>
+        <v>125</v>
       </c>
     </row>
     <row r="239" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q239" t="s">
-        <v>420</v>
+        <v>126</v>
       </c>
     </row>
     <row r="240" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q240" t="s">
-        <v>421</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q241" t="s">
-        <v>422</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q242" t="s">
-        <v>423</v>
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q243" t="s">
-        <v>424</v>
+        <v>130</v>
       </c>
     </row>
     <row r="244" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q244" t="s">
-        <v>425</v>
+        <v>131</v>
       </c>
     </row>
     <row r="245" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q245" t="s">
-        <v>426</v>
+      <c r="Q245" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="246" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q246" t="s">
-        <v>427</v>
+      <c r="Q246" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q247" t="s">
-        <v>461</v>
+      <c r="Q247" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="248" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q248" t="s">
-        <v>445</v>
+      <c r="Q248" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="249" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q249" t="s">
-        <v>446</v>
+      <c r="Q249" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="250" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q250" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="251" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q251" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="252" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q252" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="253" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q253" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="254" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q254" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="255" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q255" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="256" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q256" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q258" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="259" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q259" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="260" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q260" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="261" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q261" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q262" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="263" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q263" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="264" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q264" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="265" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q265" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="266" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q266" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="267" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q267" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="268" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q268" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q269" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="270" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q270" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:P21">
+    <sortCondition ref="P21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FA689-246F-41AC-A1C0-A3FDA5EBD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B169E-1F07-4E05-99C7-E1AA06B55A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="516">
   <si>
     <t>pixelmon:exp_all</t>
   </si>
@@ -1537,6 +1537,51 @@
   </si>
   <si>
     <t>pixelmon:poke_ballpixelmon:master_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:x_attack</t>
+  </si>
+  <si>
+    <t>pixelmon:x_defense</t>
+  </si>
+  <si>
+    <t>pixelmon:x_special_attack</t>
+  </si>
+  <si>
+    <t>pixelmon:x_special_defense</t>
+  </si>
+  <si>
+    <t>pixelmon:x_speed</t>
+  </si>
+  <si>
+    <t>pixelmon:x_accuracy</t>
+  </si>
+  <si>
+    <t>pixelmon:dire_hit</t>
+  </si>
+  <si>
+    <t>pixelmon:guard_spec</t>
+  </si>
+  <si>
+    <t>pixelmon:chipped_pot</t>
+  </si>
+  <si>
+    <t>pixelmon:cracked_pot</t>
+  </si>
+  <si>
+    <t>pixelmon:linking_cord</t>
+  </si>
+  <si>
+    <t>pixelmon:auspicious_armor</t>
+  </si>
+  <si>
+    <t>pixelmon:malicious_armor</t>
+  </si>
+  <si>
+    <t>pixelmon:sweet_apple</t>
+  </si>
+  <si>
+    <t>pixelmon:tart_apple</t>
   </si>
 </sst>
 </file>
@@ -1857,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE888BD-5DA8-4EC4-800C-516BD8A60089}">
-  <dimension ref="A1:Q270"/>
+  <dimension ref="A1:Q277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2029,7 @@
         <v>373</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="Q2" t="s">
         <v>463</v>
@@ -2036,8 +2081,8 @@
       <c r="O3" t="s">
         <v>374</v>
       </c>
-      <c r="P3" t="s">
-        <v>392</v>
+      <c r="P3" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="Q3" t="s">
         <v>464</v>
@@ -2090,7 +2135,7 @@
         <v>375</v>
       </c>
       <c r="P4" t="s">
-        <v>393</v>
+        <v>509</v>
       </c>
       <c r="Q4" t="s">
         <v>465</v>
@@ -2143,7 +2188,7 @@
         <v>376</v>
       </c>
       <c r="P5" t="s">
-        <v>394</v>
+        <v>510</v>
       </c>
       <c r="Q5" t="s">
         <v>466</v>
@@ -2196,7 +2241,7 @@
         <v>377</v>
       </c>
       <c r="P6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q6" t="s">
         <v>467</v>
@@ -2249,7 +2294,7 @@
         <v>377</v>
       </c>
       <c r="P7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q7" t="s">
         <v>468</v>
@@ -2302,7 +2347,7 @@
         <v>378</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="Q8" t="s">
         <v>469</v>
@@ -2352,7 +2397,7 @@
         <v>379</v>
       </c>
       <c r="P9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q9" t="s">
         <v>470</v>
@@ -2402,7 +2447,7 @@
         <v>380</v>
       </c>
       <c r="P10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q10" t="s">
         <v>471</v>
@@ -2449,7 +2494,7 @@
         <v>381</v>
       </c>
       <c r="P11" t="s">
-        <v>399</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="s">
         <v>472</v>
@@ -2493,7 +2538,7 @@
         <v>382</v>
       </c>
       <c r="P12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q12" t="s">
         <v>473</v>
@@ -2536,8 +2581,8 @@
       <c r="O13" t="s">
         <v>383</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>456</v>
+      <c r="P13" t="s">
+        <v>511</v>
       </c>
       <c r="Q13" t="s">
         <v>474</v>
@@ -2581,7 +2626,7 @@
         <v>384</v>
       </c>
       <c r="P14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q14" t="s">
         <v>475</v>
@@ -2624,8 +2669,8 @@
       <c r="O15" t="s">
         <v>385</v>
       </c>
-      <c r="P15" t="s">
-        <v>402</v>
+      <c r="P15" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="Q15" t="s">
         <v>476</v>
@@ -2669,7 +2714,7 @@
         <v>386</v>
       </c>
       <c r="P16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q16" t="s">
         <v>477</v>
@@ -2707,7 +2752,7 @@
         <v>387</v>
       </c>
       <c r="P17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q17" t="s">
         <v>478</v>
@@ -2744,8 +2789,8 @@
       <c r="O18" t="s">
         <v>388</v>
       </c>
-      <c r="P18" t="s">
-        <v>405</v>
+      <c r="P18" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="Q18" t="s">
         <v>479</v>
@@ -2780,7 +2825,7 @@
         <v>389</v>
       </c>
       <c r="P19" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="Q19" t="s">
         <v>480</v>
@@ -2812,7 +2857,7 @@
         <v>390</v>
       </c>
       <c r="P20" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="Q20" t="s">
         <v>481</v>
@@ -2841,7 +2886,7 @@
         <v>305</v>
       </c>
       <c r="P21" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="Q21" t="s">
         <v>482</v>
@@ -2869,6 +2914,9 @@
       <c r="N22" t="s">
         <v>306</v>
       </c>
+      <c r="P22" t="s">
+        <v>404</v>
+      </c>
       <c r="Q22" t="s">
         <v>483</v>
       </c>
@@ -2895,6 +2943,9 @@
       <c r="N23" t="s">
         <v>307</v>
       </c>
+      <c r="P23" t="s">
+        <v>405</v>
+      </c>
       <c r="Q23" t="s">
         <v>484</v>
       </c>
@@ -2921,6 +2972,9 @@
       <c r="N24" t="s">
         <v>308</v>
       </c>
+      <c r="P24" t="s">
+        <v>421</v>
+      </c>
       <c r="Q24" t="s">
         <v>485</v>
       </c>
@@ -2947,6 +3001,9 @@
       <c r="N25" t="s">
         <v>309</v>
       </c>
+      <c r="P25" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="Q25" t="s">
         <v>486</v>
       </c>
@@ -2973,6 +3030,9 @@
       <c r="N26" t="s">
         <v>310</v>
       </c>
+      <c r="P26" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="Q26" t="s">
         <v>487</v>
       </c>
@@ -2999,6 +3059,9 @@
       <c r="N27" t="s">
         <v>311</v>
       </c>
+      <c r="P27" t="s">
+        <v>437</v>
+      </c>
       <c r="Q27" t="s">
         <v>488</v>
       </c>
@@ -3025,6 +3088,9 @@
       <c r="N28" t="s">
         <v>312</v>
       </c>
+      <c r="P28" t="s">
+        <v>422</v>
+      </c>
       <c r="Q28" t="s">
         <v>489</v>
       </c>
@@ -3065,6 +3131,9 @@
       <c r="F30" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G30" t="s">
+        <v>501</v>
+      </c>
       <c r="J30" t="s">
         <v>163</v>
       </c>
@@ -3088,6 +3157,9 @@
       <c r="F31" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="G31" t="s">
+        <v>502</v>
+      </c>
       <c r="J31" t="s">
         <v>165</v>
       </c>
@@ -3111,6 +3183,9 @@
       <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G32" t="s">
+        <v>503</v>
+      </c>
       <c r="J32" t="s">
         <v>167</v>
       </c>
@@ -3134,6 +3209,9 @@
       <c r="F33" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="G33" t="s">
+        <v>504</v>
+      </c>
       <c r="J33" t="s">
         <v>168</v>
       </c>
@@ -3157,6 +3235,9 @@
       <c r="F34" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G34" t="s">
+        <v>505</v>
+      </c>
       <c r="J34" t="s">
         <v>170</v>
       </c>
@@ -3180,6 +3261,9 @@
       <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G35" t="s">
+        <v>506</v>
+      </c>
       <c r="J35" t="s">
         <v>171</v>
       </c>
@@ -3203,6 +3287,9 @@
       <c r="F36" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G36" t="s">
+        <v>507</v>
+      </c>
       <c r="L36" t="s">
         <v>413</v>
       </c>
@@ -3223,6 +3310,9 @@
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G37" t="s">
+        <v>508</v>
+      </c>
       <c r="L37" t="s">
         <v>233</v>
       </c>
@@ -4639,107 +4729,142 @@
     </row>
     <row r="251" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q251" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="252" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q252" s="1" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="252" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q252" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="253" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q253" t="s">
-        <v>393</v>
+        <v>509</v>
       </c>
     </row>
     <row r="254" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q254" t="s">
-        <v>394</v>
+        <v>510</v>
       </c>
     </row>
     <row r="255" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q255" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q256" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="257" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q257" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="258" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q258" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="259" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q259" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="260" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q260" t="s">
-        <v>399</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q261" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="262" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q262" s="1" t="s">
-        <v>456</v>
+      <c r="Q262" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="263" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q263" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q264" t="s">
-        <v>402</v>
+      <c r="Q264" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="265" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q265" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q266" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="267" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q267" t="s">
-        <v>405</v>
+      <c r="Q267" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q268" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q269" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="270" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q270" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q271" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="272" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q272" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="273" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q273" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="274" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q274" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="275" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q275" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q276" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="277" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q277" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:P21">
-    <sortCondition ref="P21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:P28">
+    <sortCondition ref="P2:P28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B169E-1F07-4E05-99C7-E1AA06B55A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53C69E-6723-4DF9-A023-870AAE5176BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1904,9 +1904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE888BD-5DA8-4EC4-800C-516BD8A60089}">
   <dimension ref="A1:Q277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.16.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53C69E-6723-4DF9-A023-870AAE5176BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7469CC6-68EE-4A2E-A7AA-3268F4542001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="541">
   <si>
     <t>pixelmon:exp_all</t>
   </si>
@@ -1582,6 +1582,81 @@
   </si>
   <si>
     <t>pixelmon:tart_apple</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_adamant</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_bashful</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_bold</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_brave</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_calm</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_careful</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_docile</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_gentle</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_hardy</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_hasty</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_impish</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_jolly</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_lax</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_lonely</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_mild</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_modest</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_naive</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_naughty</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_quiet</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_quirky</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_rash</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_relaxed</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_sassy</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_serious</t>
+  </si>
+  <si>
+    <t>pixelmon:mint_timid</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE888BD-5DA8-4EC4-800C-516BD8A60089}">
-  <dimension ref="A1:Q277"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2836,6 +2911,9 @@
       <c r="B20" t="s">
         <v>251</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>406</v>
       </c>
@@ -2868,6 +2946,9 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2897,6 +2978,9 @@
       <c r="B22" t="s">
         <v>266</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2926,6 +3010,9 @@
       <c r="B23" t="s">
         <v>248</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>407</v>
       </c>
@@ -2955,6 +3042,9 @@
       <c r="B24" t="s">
         <v>249</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
@@ -2984,6 +3074,9 @@
       <c r="B25" t="s">
         <v>252</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>79</v>
       </c>
@@ -3013,6 +3106,9 @@
       <c r="B26" t="s">
         <v>273</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
@@ -3042,6 +3138,9 @@
       <c r="B27" t="s">
         <v>427</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,6 +3170,9 @@
       <c r="B28" t="s">
         <v>428</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>408</v>
       </c>
@@ -3100,6 +3202,9 @@
       <c r="B29" t="s">
         <v>429</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>78</v>
       </c>
@@ -3126,6 +3231,9 @@
       <c r="B30" t="s">
         <v>430</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3152,6 +3260,9 @@
       <c r="B31" t="s">
         <v>247</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>84</v>
       </c>
@@ -3178,6 +3289,9 @@
       <c r="B32" t="s">
         <v>250</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3204,6 +3318,9 @@
       <c r="B33" t="s">
         <v>253</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>442</v>
       </c>
@@ -3230,6 +3347,9 @@
       <c r="B34" t="s">
         <v>254</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3256,6 +3376,9 @@
       <c r="B35" t="s">
         <v>255</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
@@ -3282,6 +3405,9 @@
       <c r="B36" t="s">
         <v>256</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>54</v>
       </c>
@@ -3305,6 +3431,9 @@
       <c r="B37" t="s">
         <v>257</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3328,6 +3457,9 @@
       <c r="B38" t="s">
         <v>258</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>64</v>
       </c>
@@ -3348,6 +3480,9 @@
       <c r="B39" t="s">
         <v>259</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>443</v>
       </c>
@@ -3365,6 +3500,9 @@
       <c r="B40" t="s">
         <v>261</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>85</v>
       </c>
@@ -3382,6 +3520,9 @@
       <c r="B41" t="s">
         <v>262</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>409</v>
       </c>
@@ -3399,6 +3540,9 @@
       <c r="B42" t="s">
         <v>263</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>444</v>
       </c>
@@ -3416,6 +3560,9 @@
       <c r="B43" t="s">
         <v>267</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>445</v>
       </c>
@@ -3433,6 +3580,9 @@
       <c r="B44" t="s">
         <v>269</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>446</v>
       </c>
@@ -4858,6 +5008,131 @@
     <row r="277" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q277" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="278" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q278" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="279" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q279" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="280" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q280" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="281" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q281" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="282" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q282" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="283" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q283" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="284" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q284" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="285" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q285" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="286" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q286" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="287" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q287" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="288" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q288" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="289" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q289" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="290" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q290" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="291" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q291" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="292" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q292" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="293" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q293" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="294" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q294" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="295" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q295" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="296" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q296" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="297" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q297" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="298" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q298" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="299" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q299" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="300" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q300" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="301" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q301" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="302" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q302" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
